--- a/docs/wavegen.xlsx
+++ b/docs/wavegen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\twangilizer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46228BB1-254E-4CAA-BFAF-BF6AE1380F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB395CD-D3B1-40F1-AD20-80C1A56D5D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E11CAD71-D1F7-49E4-A798-BF110B5F2E31}"/>
   </bookViews>
@@ -33,6 +33,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Resistance (real)</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -178,9 +207,9 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.5606621197892105E-5</c:v>
@@ -305,7 +334,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -484,7 +513,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$1:$K$20</c:f>
+              <c:f>Sheet1!$K$2:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1847,13 +1876,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1882,13 +1911,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2214,388 +2243,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA986B4B-4755-4661-9E67-3C45C6CDA7B5}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <f>0.000015*SIN((A1+$E$1)*6.2832)+0.000045</f>
-        <v>5.5606621197892105E-5</v>
-      </c>
-      <c r="C1">
-        <f>9/B1</f>
-        <v>161851.2293341996</v>
-      </c>
-      <c r="E1">
-        <v>0.125</v>
-      </c>
-      <c r="I1">
-        <v>162000</v>
-      </c>
-      <c r="J1">
-        <f>9/I1-0.000045</f>
-        <v>1.0555555555555555E-5</v>
-      </c>
-      <c r="K1">
-        <f>-52300*J1</f>
-        <v>-0.55205555555555552</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.1</v>
-      </c>
-      <c r="B2">
-        <f>0.000015*SIN((A2+$E$1)*6.2832)+0.000045</f>
-        <v>5.9815332866160426E-5</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>$F$2*SIN((A2+$E$2)*6.2832)+$G$2</f>
+        <v>5.5606621197892105E-5</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C10" si="0">9/B2</f>
-        <v>150463.09313596759</v>
-      </c>
-      <c r="I2" s="1">
-        <v>150000</v>
+        <f>9/B2</f>
+        <v>161851.2293341996</v>
+      </c>
+      <c r="E2">
+        <v>0.125</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="I2">
+        <v>162000</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J10" si="1">9/I2-0.000045</f>
-        <v>1.4999999999999999E-5</v>
+        <f>9/I2-0.000045</f>
+        <v>1.0555555555555555E-5</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K20" si="2">-52300*J2</f>
-        <v>-0.78449999999999998</v>
+        <f>-52300*J2</f>
+        <v>-0.55205555555555552</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.2</v>
-      </c>
-      <c r="B3">
-        <f>0.000015*SIN((A3+$E$1)*6.2832)+0.000045</f>
-        <v>5.8365065344468844E-5</v>
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B11" si="0">$F$2*SIN((A3+$E$2)*6.2832)+$G$2</f>
+        <v>5.9815332866160426E-5</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>154201.83198429184</v>
+        <f t="shared" ref="C3:C11" si="1">9/B3</f>
+        <v>150463.09313596759</v>
       </c>
       <c r="I3" s="1">
-        <v>154000</v>
+        <v>150000</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
-        <v>1.344155844155844E-5</v>
+        <f t="shared" ref="J3:J11" si="2">9/I3-0.000045</f>
+        <v>1.4999999999999999E-5</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
-        <v>-0.70299350649350645</v>
+        <f t="shared" ref="K3:K21" si="3">-52300*J3</f>
+        <v>-0.78449999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.3</v>
-      </c>
-      <c r="B4">
-        <f>0.000015*SIN((A4+$E$1)*6.2832)+0.000045</f>
-        <v>5.1809774038292783E-5</v>
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8365065344468844E-5</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>173712.39630090009</v>
+        <f t="shared" si="1"/>
+        <v>154201.83198429184</v>
       </c>
       <c r="I4" s="1">
-        <v>174000</v>
+        <v>154000</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>6.7241379310344787E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.344155844155844E-5</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
-        <v>-0.35167241379310321</v>
+        <f t="shared" si="3"/>
+        <v>-0.70299350649350645</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.4</v>
-      </c>
-      <c r="B5">
-        <f>0.000015*SIN((A5+$E$1)*6.2832)+0.000045</f>
-        <v>4.2653368743037975E-5</v>
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1809774038292783E-5</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>211003.26340505073</v>
+        <f t="shared" si="1"/>
+        <v>173712.39630090009</v>
       </c>
       <c r="I5" s="1">
-        <v>210000</v>
+        <v>174000</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>-2.1428571428571465E-6</v>
+        <f t="shared" si="2"/>
+        <v>6.7241379310344787E-6</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>0.11207142857142877</v>
+        <f t="shared" si="3"/>
+        <v>-0.35167241379310321</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <f>0.000015*SIN((A6+$E$1)*6.2832)+0.000045</f>
-        <v>3.4393300882090111E-5</v>
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2653368743037975E-5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>261678.86679020795</v>
+        <f t="shared" si="1"/>
+        <v>211003.26340505073</v>
       </c>
       <c r="I6" s="1">
-        <v>261000</v>
+        <v>210000</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>-1.0517241379310346E-5</v>
+        <f t="shared" si="2"/>
+        <v>-2.1428571428571465E-6</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>0.55005172413793113</v>
+        <f t="shared" si="3"/>
+        <v>0.11207142857142877</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.6</v>
-      </c>
-      <c r="B7">
-        <f>0.000015*SIN((A7+$E$1)*6.2832)+0.000045</f>
-        <v>3.0184649896122918E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4393300882090111E-5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>298164.7967086744</v>
+        <f t="shared" si="1"/>
+        <v>261678.86679020795</v>
       </c>
       <c r="I7" s="1">
-        <v>300000</v>
+        <v>261000</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>-1.5000000000000002E-5</v>
+        <f t="shared" si="2"/>
+        <v>-1.0517241379310346E-5</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>0.78450000000000009</v>
+        <f t="shared" si="3"/>
+        <v>0.55005172413793113</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.7</v>
-      </c>
-      <c r="B8">
-        <f>0.000015*SIN((A8+$E$1)*6.2832)+0.000045</f>
-        <v>3.1634984684367277E-5</v>
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0184649896122918E-5</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>284495.15907138825</v>
+        <f t="shared" si="1"/>
+        <v>298164.7967086744</v>
       </c>
       <c r="I8" s="1">
-        <v>287000</v>
+        <v>300000</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>-1.3641114982578397E-5</v>
+        <f t="shared" si="2"/>
+        <v>-1.5000000000000002E-5</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>0.71343031358885023</v>
+        <f t="shared" si="3"/>
+        <v>0.78450000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.8</v>
-      </c>
-      <c r="B9">
-        <f>0.000015*SIN((A9+$E$1)*6.2832)+0.000045</f>
-        <v>3.8190324147694728E-5</v>
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1634984684367277E-5</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>235661.78608995295</v>
+        <f t="shared" si="1"/>
+        <v>284495.15907138825</v>
       </c>
       <c r="I9" s="1">
-        <v>237000</v>
+        <v>287000</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>-7.025316455696203E-6</v>
+        <f t="shared" si="2"/>
+        <v>-1.3641114982578397E-5</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>0.36742405063291139</v>
+        <f t="shared" si="3"/>
+        <v>0.71343031358885023</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.9</v>
-      </c>
-      <c r="B10">
-        <f>0.000015*SIN((A10+$E$1)*6.2832)+0.000045</f>
-        <v>4.7346740096221318E-5</v>
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8190324147694728E-5</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>190087.00454792829</v>
+        <f t="shared" si="1"/>
+        <v>235661.78608995295</v>
       </c>
       <c r="I10" s="1">
-        <v>191000</v>
+        <v>237000</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>2.1204188481675345E-6</v>
+        <f t="shared" si="2"/>
+        <v>-7.025316455696203E-6</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>-0.11089790575916206</v>
+        <f t="shared" si="3"/>
+        <v>0.36742405063291139</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11">
-        <v>162000</v>
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7346740096221318E-5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>190087.00454792829</v>
+      </c>
+      <c r="I11" s="1">
+        <v>191000</v>
       </c>
       <c r="J11">
-        <f>9/I11-0.000045</f>
-        <v>1.0555555555555555E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.1204188481675345E-6</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>-0.55205555555555552</v>
+        <f t="shared" si="3"/>
+        <v>-0.11089790575916206</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I12" s="1">
-        <v>150000</v>
+      <c r="I12">
+        <v>162000</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J20" si="3">9/I12-0.000045</f>
-        <v>1.4999999999999999E-5</v>
+        <f>9/I12-0.000045</f>
+        <v>1.0555555555555555E-5</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
-        <v>-0.78449999999999998</v>
+        <f t="shared" si="3"/>
+        <v>-0.55205555555555552</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I13" s="1">
-        <v>154000</v>
+        <v>150000</v>
       </c>
       <c r="J13">
+        <f t="shared" ref="J13:J21" si="4">9/I13-0.000045</f>
+        <v>1.4999999999999999E-5</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="3"/>
-        <v>1.344155844155844E-5</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>-0.70299350649350645</v>
+        <v>-0.78449999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I14" s="1">
-        <v>174000</v>
+        <v>154000</v>
       </c>
       <c r="J14">
+        <f t="shared" si="4"/>
+        <v>1.344155844155844E-5</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="3"/>
-        <v>6.7241379310344787E-6</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>-0.35167241379310321</v>
+        <v>-0.70299350649350645</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I15" s="1">
-        <v>210000</v>
+        <v>174000</v>
       </c>
       <c r="J15">
+        <f t="shared" si="4"/>
+        <v>6.7241379310344787E-6</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="3"/>
-        <v>-2.1428571428571465E-6</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>0.11207142857142877</v>
+        <v>-0.35167241379310321</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16" s="1">
-        <v>261000</v>
+        <v>210000</v>
       </c>
       <c r="J16">
+        <f t="shared" si="4"/>
+        <v>-2.1428571428571465E-6</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="3"/>
-        <v>-1.0517241379310346E-5</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>0.55005172413793113</v>
+        <v>0.11207142857142877</v>
       </c>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" s="1">
-        <v>300000</v>
+        <v>261000</v>
       </c>
       <c r="J17">
+        <f t="shared" si="4"/>
+        <v>-1.0517241379310346E-5</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="3"/>
-        <v>-1.5000000000000002E-5</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0.78450000000000009</v>
+        <v>0.55005172413793113</v>
       </c>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18" s="1">
-        <v>287000</v>
+        <v>300000</v>
       </c>
       <c r="J18">
+        <f t="shared" si="4"/>
+        <v>-1.5000000000000002E-5</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="3"/>
-        <v>-1.3641114982578397E-5</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>0.71343031358885023</v>
+        <v>0.78450000000000009</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I19" s="1">
-        <v>237000</v>
+        <v>287000</v>
       </c>
       <c r="J19">
+        <f t="shared" si="4"/>
+        <v>-1.3641114982578397E-5</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="3"/>
-        <v>-7.025316455696203E-6</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
-        <v>0.36742405063291139</v>
+        <v>0.71343031358885023</v>
       </c>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I20" s="1">
+        <v>237000</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>-7.025316455696203E-6</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0.36742405063291139</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
         <v>191000</v>
       </c>
-      <c r="J20">
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>2.1204188481675345E-6</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="3"/>
-        <v>2.1204188481675345E-6</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
         <v>-0.11089790575916206</v>
       </c>
     </row>

--- a/docs/wavegen.xlsx
+++ b/docs/wavegen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\twangilizer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB395CD-D3B1-40F1-AD20-80C1A56D5D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4BC251-CF2A-4056-9737-75A9726FCB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E11CAD71-D1F7-49E4-A798-BF110B5F2E31}"/>
   </bookViews>
@@ -509,7 +509,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -595,6 +607,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="662043776"/>
         <c:axId val="662044128"/>
@@ -1947,9 +1960,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1987,7 +2000,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2093,7 +2106,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2235,7 +2248,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
